--- a/Course plan.xlsx
+++ b/Course plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Teaching\Statistics\Introductory_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{D90101D8-B0E9-4361-8CB0-5528059629E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345A1123-1C5B-4BBB-921D-1D3ADF26814B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11235" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -461,7 +460,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -495,7 +493,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -510,7 +507,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="da-DK"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -557,7 +554,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -591,7 +587,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -625,7 +620,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -659,7 +653,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -693,7 +686,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -727,7 +719,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -742,7 +733,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="da-DK"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -789,7 +780,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -823,7 +813,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -857,7 +846,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -891,7 +879,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -925,7 +912,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2130,8 +2116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE942774-4FA8-4DB9-ACB7-61C81F9E1DC2}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Course plan.xlsx
+++ b/Course plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Teaching\Statistics\Introductory_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345A1123-1C5B-4BBB-921D-1D3ADF26814B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD9714E-6A91-4338-93B7-7EE060083873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>Lecture</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>Purpose and definition of statistics + Data and data sources + Population and samples + Classification of scales</t>
+  </si>
+  <si>
+    <t>Does two samples come from the same distribution? Coming up to an answer to this question, we can derive a surprisingly versatile test.</t>
   </si>
 </sst>
 </file>
@@ -408,7 +411,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3876588-F29E-4B25-A27E-128B3578315A}" type="CELLRANGE">
+                    <a:fld id="{AE3FA251-C943-467C-BD46-12223BBA3DB5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -441,8 +444,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4731C7FC-8AB8-4D17-A0D9-EB81E1AA7C9D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{52209B77-D243-4B43-9E98-FD5A35BFDCEF}" type="CELLRANGE">
+                      <a:rPr lang="da-DK"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -460,6 +463,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -474,8 +478,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F091CE82-5948-4710-8B69-DD7CA75F534C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{80EB5669-DC59-4EA9-A033-AEC1BBBCEC1C}" type="CELLRANGE">
+                      <a:rPr lang="da-DK"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -493,6 +497,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -535,8 +540,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A7D6A62E-B33F-4648-9A88-3652B99CDF6A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{179C47D0-157F-4E15-A5DC-14F080BB709F}" type="CELLRANGE">
+                      <a:rPr lang="da-DK"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -554,6 +559,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -568,8 +574,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15E51E39-0A64-4D27-9467-851187369DB6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{96191926-A70C-4DEB-8B6B-CBFBD74A46CC}" type="CELLRANGE">
+                      <a:rPr lang="da-DK"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -587,6 +593,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -601,8 +608,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93537CD6-2A75-4C87-B603-34466E126429}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{63078708-D274-4507-A1A7-FE05D860CFD8}" type="CELLRANGE">
+                      <a:rPr lang="da-DK"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -620,6 +627,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -634,8 +642,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0749DA57-0B67-4597-8841-C74D5DD4AEFF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{ED434803-9C00-48AF-A252-9F5B2E807383}" type="CELLRANGE">
+                      <a:rPr lang="da-DK"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -653,6 +661,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -667,8 +676,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{358838BB-63A6-436B-8FDE-AD79E1B6628D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{42BFBB77-66F1-40B1-9712-3DCA392E13E2}" type="CELLRANGE">
+                      <a:rPr lang="da-DK"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -686,6 +695,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -700,8 +710,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F6EFA697-F946-428E-AC56-A62095D8874C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{E26C40EC-AD56-4E34-9335-61FF72DE37D0}" type="CELLRANGE">
+                      <a:rPr lang="da-DK"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -719,6 +729,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -761,8 +772,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5BA13976-9D12-4C85-9264-419B88A7A0A6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{8354BC6A-2434-4506-BE97-3B2DAE13E623}" type="CELLRANGE">
+                      <a:rPr lang="da-DK"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -780,6 +791,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -794,8 +806,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42F3CD71-E975-4832-9A6A-32BD866A7A32}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{8F8FACEB-A4CD-40E8-B9F6-F5BF40338389}" type="CELLRANGE">
+                      <a:rPr lang="da-DK"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -813,6 +825,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -827,8 +840,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{508022A9-34A4-4858-B155-AD44D5A309C2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{1A5B7536-70CB-4B45-9CD1-09DC80509B23}" type="CELLRANGE">
+                      <a:rPr lang="da-DK"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -846,6 +859,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -860,8 +874,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{91CC32A9-0180-483B-9739-AB427141CF11}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{E651E1F0-17F0-401B-BA76-5498C9C6477F}" type="CELLRANGE">
+                      <a:rPr lang="da-DK"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -879,6 +893,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -893,8 +908,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E29C2880-D425-4EC0-BB34-3755920B34E5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{24906F2F-008A-460B-9C68-C58E4521DF98}" type="CELLRANGE">
+                      <a:rPr lang="da-DK"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -912,6 +927,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2116,8 +2132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE942774-4FA8-4DB9-ACB7-61C81F9E1DC2}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2433,7 +2449,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2446,7 +2462,9 @@
       <c r="D13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
@@ -2587,21 +2605,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Book","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>